--- a/02_MasterWifoMannheim/99_Backup/Course133.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course133.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD32051265F592811597198364375F973" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F76AF229-7C6C-46EF-A5DA-58360BCFD3CA}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 695 Project Course Innovation Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This seminar provides insights into current, practical issues in innovation management. The goal is to collaboratively solve a real-life problem. teams (of approx. 4 students) on practical cases and take on the role of consultants to help companies tackle specific innovation management challenges. like innovation and collaboration strategies, development and commercialisation of new product concepts, corporate venturing initiatives, or business model innovation. Participants will analyse the challenges faced by companies, apply theoretical concepts and methods to the specific case setting, and develop recommendations. They will receive guidance and feedback throughout the course and present solutions at the end of the seminar.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students gain insights into the business challenges of a real company. The already acquired knowledge of theoretical concepts in innovation management is deepened. The transfer- and problem-solving skills of students are enhanced as students apply theoretical knowledge to derive meaningful solutions for challenges in innovation management. Students can practice their presentation skills and learn how to effectively communicate the results and insights of their analysis.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on registration: Website of the Chair &amp; Portal2</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Seminar 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Assignment and oral presentation (70%), in-class discussion (30%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Karin Hoisl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall Semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Econ., M.Sc. Bus. Inf.</t>
-  </si>
-  <si>
-    <t>Management (MAN), MAN 690</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 695 Project Course Innovation Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This seminar provides insights into current, practical issues in innovation management. The goal is to collaboratively solve a real-life problem. teams (of approx. 4 students) on practical cases and take on the role of consultants to help companies tackle specific innovation management challenges. like innovation and collaboration strategies, development and commercialisation of new product concepts, corporate venturing initiatives, or business model innovation. Participants will analyse the challenges faced by companies, apply theoretical concepts and methods to the specific case setting, and develop recommendations. They will receive guidance and feedback throughout the course and present solutions at the end of the seminar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students gain insights into the business challenges of a real company. The already acquired knowledge of theoretical concepts in innovation management is deepened. The transfer- and problem-solving skills of students are enhanced as students apply theoretical knowledge to derive meaningful solutions for challenges in innovation management. Students can practice their presentation skills and learn how to effectively communicate the results and insights of their analysis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management (MAN), MAN 690</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration: Website of the Chair &amp; Portal2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Seminar 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Assignment and oral presentation (70%), in-class discussion (30%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Karin Hoisl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Econ., M.Sc. Bus. Inf.</t>
+        </is>
       </c>
     </row>
   </sheetData>
